--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prj\nf.data-flow\exels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prj\nf.data-flow\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B18B75F-9CD8-43C1-8A80-4FF08190F5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAAA2F-7872-472E-BD55-062F1D542603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="2360" windowWidth="28800" windowHeight="15370" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="3310" windowWidth="9740" windowHeight="6040" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@E_ENUM" sheetId="6" r:id="rId1"/>
@@ -187,7 +187,7 @@
       <name val="arial unicode ms"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,12 +202,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -215,43 +233,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,47 +647,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9667C8A-C0A5-4FDC-87D3-07B3CD4F85DC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" activeCellId="3" sqref="A1:A3 D3 C3 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="4">
         <v>13</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>30</v>
       </c>
     </row>
@@ -759,7 +775,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1"/>
@@ -779,51 +795,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8C9D61-6E85-4ADC-A205-1B7B7FA1CD28}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -840,9 +870,10 @@
       <c r="D4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
@@ -857,9 +888,10 @@
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="E5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
@@ -877,6 +909,7 @@
       <c r="E6" s="11" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
@@ -891,9 +924,10 @@
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
@@ -908,9 +942,10 @@
       <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="E8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
@@ -925,26 +960,28 @@
       <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="E9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -955,22 +992,22 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
-    <col min="5" max="5" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="13">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -979,12 +1016,12 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" ht="13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -993,149 +1030,154 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="16">
         <f>'!CONST2'!C4</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="16">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="16">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="16">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="7">
+      <c r="A11" s="9"/>
+      <c r="B11" s="16">
         <v>4</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="16">
         <v>4</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
     </row>

--- a/excels/test.xlsx
+++ b/excels/test.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prj\nf.data-flow\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAAA2F-7872-472E-BD55-062F1D542603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439755EB-2C67-418E-B2ED-9A7A98E65708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="3310" windowWidth="9740" windowHeight="6040" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="763" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@E_ENUM" sheetId="6" r:id="rId1"/>
-    <sheet name="!CONST2" sheetId="5" r:id="rId2"/>
-    <sheet name="SampleCharacter" sheetId="7" r:id="rId3"/>
+    <sheet name="!CONST" sheetId="5" r:id="rId2"/>
+    <sheet name="DCharacter" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -63,18 +60,12 @@
     <t>helelo</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>n3</t>
   </si>
   <si>
     <t>ASDF</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>n4</t>
   </si>
   <si>
@@ -108,15 +99,9 @@
     <t>&amp;END</t>
   </si>
   <si>
-    <t>[Obsolete]</t>
-  </si>
-  <si>
     <t>[Unique]</t>
   </si>
   <si>
-    <t>PART</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
@@ -132,18 +117,6 @@
     <t>ATTR</t>
   </si>
   <si>
-    <t>TABLE</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>TATTR</t>
-  </si>
-  <si>
-    <t>[Hello]</t>
-  </si>
-  <si>
     <t>아이디</t>
   </si>
   <si>
@@ -154,13 +127,16 @@
   </si>
   <si>
     <t>레벨</t>
+  </si>
+  <si>
+    <t>[PrimaryKey]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -180,10 +156,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="arial unicode ms"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="arial unicode ms"/>
     </font>
   </fonts>
@@ -214,13 +186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -237,14 +209,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -253,16 +222,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,339 +609,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9667C8A-C0A5-4FDC-87D3-07B3CD4F85DC}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" activeCellId="3" sqref="A1:A3 D3 C3 B3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8C9D61-6E85-4ADC-A205-1B7B7FA1CD28}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="5.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="10">
-        <v>2</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
-        <v>6</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -990,16 +863,16 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -1007,178 +880,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="13">
-      <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="8" t="s">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" ht="13">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" ht="13">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>38</v>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="16">
-        <f>'!CONST2'!C4</f>
-        <v>1</v>
+      <c r="E8" s="10">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="16">
-        <v>2</v>
-      </c>
-      <c r="C9" s="16">
-        <v>2</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="16">
-        <v>3</v>
-      </c>
-      <c r="C10" s="16">
-        <v>3</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16">
-        <v>4</v>
-      </c>
-      <c r="C11" s="16">
-        <v>4</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
